--- a/data/trans_camb/P28B_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,23</t>
+          <t>-6,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,92</t>
+          <t>-18,3</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-15,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,15</t>
+          <t>-17,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,86</t>
+          <t>-12,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-12,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-12,9</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -2,02</t>
+          <t>-12,89; 0,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,39; -5,84</t>
+          <t>-16,47; -2,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,56; -4,4</t>
+          <t>-13,87; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,15; -8,82</t>
+          <t>-25,59; -10,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,4; -7,58</t>
+          <t>-23,85; -8,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; -8,7</t>
+          <t>-26,05; -10,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,92; -7,14</t>
+          <t>-18,17; -7,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -8,66</t>
+          <t>-18,05; -7,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,36; -8,62</t>
+          <t>-17,98; -7,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-44,1%</t>
+          <t>-42,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,67%</t>
+          <t>-65,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-60,45%</t>
+          <t>-48,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-62,97%</t>
+          <t>-68,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-59,54%</t>
+          <t>-58,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-63,98%</t>
+          <t>-66,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-55,7%</t>
+          <t>-60,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-62,71%</t>
+          <t>-61,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-62,76%</t>
+          <t>-60,93%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,38; -13,65</t>
+          <t>-71,14; 8,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,93; -39,98</t>
+          <t>-85,92; -21,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,28; -30,3</t>
+          <t>-77,23; 16,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,9; -45,58</t>
+          <t>-81,77; -48,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,14; -40,2</t>
+          <t>-74,43; -35,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,46; -44,89</t>
+          <t>-81,23; -46,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,64; -41,19</t>
+          <t>-73,68; -40,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-73,59; -48,54</t>
+          <t>-74,37; -43,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,47; -47,88</t>
+          <t>-74,69; -39,88</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,5</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,93</t>
+          <t>-7,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-12,41</t>
+          <t>-8,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-13,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-15,08</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-13,99</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-9,85</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>-11,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>-11,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,79; -3,18</t>
+          <t>-16,79; -2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,62; -3,71</t>
+          <t>-15,1; -0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -6,64</t>
+          <t>-15,63; -1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,7; -1,95</t>
+          <t>-21,08; -4,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,41; -6,1</t>
+          <t>-22,65; -7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,74; -3,9</t>
+          <t>-21,59; -5,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -5,07</t>
+          <t>-16,56; -6,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -6,73</t>
+          <t>-16,93; -6,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -7,19</t>
+          <t>-17,03; -5,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-63,42%</t>
+          <t>-73,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-59,95%</t>
+          <t>-58,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-74,95%</t>
+          <t>-69,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-45,38%</t>
+          <t>-60,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,53%</t>
+          <t>-68,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,26%</t>
+          <t>-63,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,1%</t>
+          <t>-64,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-60,5%</t>
+          <t>-65,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-63,74%</t>
+          <t>-66,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,2; -18,94</t>
+          <t>-94,04; -18,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-80,44; -24,93</t>
+          <t>-87,07; 3,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,34; -46,1</t>
+          <t>-91,9; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,53; -6,98</t>
+          <t>-79,37; -22,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-76,69; -34,13</t>
+          <t>-84,17; -38,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,21; -20,76</t>
+          <t>-83,7; -27,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,2; -30,27</t>
+          <t>-78,63; -38,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -40,23</t>
+          <t>-81,52; -44,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-76,48; -40,64</t>
+          <t>-81,09; -37,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,25</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,6</t>
+          <t>-16,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,9</t>
+          <t>-10,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 4,49</t>
+          <t>-11,85; 12,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 1,48</t>
+          <t>-15,66; 5,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,35; -0,12</t>
+          <t>-20,27; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 9,08</t>
+          <t>-21,07; 15,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 7,26</t>
+          <t>-17,57; 18,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -2,79</t>
+          <t>-33,65; -5,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 4,22</t>
+          <t>-11,53; 11,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 1,43</t>
+          <t>-11,73; 11,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,93; -3,86</t>
+          <t>-19,22; -3,09</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,16%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-68,8%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-82,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,61%</t>
+          <t>-13,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-30,43%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-74,32%</t>
+          <t>-86,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-3,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-44,0%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-77,36%</t>
+          <t>-89,17%</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 188,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 97,41</t>
+          <t>-78,28; 188,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 79,62</t>
+          <t>-64,38; 206,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,98; -8,22</t>
+          <t>-100,0; 0,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 69,14</t>
+          <t>-71,3; 212,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 20,4</t>
+          <t>-67,02; 188,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-94,5; -32,29</t>
+          <t>-100,0; 7,95</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,13</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-14,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,01</t>
+          <t>-13,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-12,77</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-9,72</t>
+          <t>-10,93</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,83</t>
+          <t>-12,14</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,99; -3,78</t>
+          <t>-11,17; -2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -5,81</t>
+          <t>-12,47; -3,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,52; -6,62</t>
+          <t>-12,24; -2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -6,94</t>
+          <t>-19,98; -9,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -8,27</t>
+          <t>-18,77; -8,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,31; -8,28</t>
+          <t>-20,9; -11,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,54; -6,8</t>
+          <t>-14,31; -7,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,87; -8,37</t>
+          <t>-14,56; -7,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -8,69</t>
+          <t>-15,74; -8,84</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-52,35%</t>
+          <t>-52,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-64,23%</t>
+          <t>-61,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-68,2%</t>
+          <t>-58,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-53,15%</t>
+          <t>-61,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-57,53%</t>
+          <t>-57,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-61,18%</t>
+          <t>-67,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-52,89%</t>
+          <t>-58,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-60,37%</t>
+          <t>-59,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-64,35%</t>
+          <t>-64,78%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,48; -29,03</t>
+          <t>-72,12; -19,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -44,64</t>
+          <t>-80,22; -33,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-82,16; -49,4</t>
+          <t>-78,99; -23,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -35,92</t>
+          <t>-73,42; -44,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-68,53; -43,45</t>
+          <t>-70,34; -41,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,13; -45,39</t>
+          <t>-77,75; -51,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,29; -40,21</t>
+          <t>-69,15; -42,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,97; -49,28</t>
+          <t>-70,37; -43,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -51,62</t>
+          <t>-75,37; -51,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
